--- a/docs/Data/Bone_Mineral_Data.xlsx
+++ b/docs/Data/Bone_Mineral_Data.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Downloads\Temp data folder\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC5C50-C4FB-44DD-A5F4-9E3FF5862670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,19 +68,19 @@
     <t>High Dose</t>
   </si>
   <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Bone Mineral Density</t>
-  </si>
-  <si>
-    <t>Description</t>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>bone_mineral_density</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,6 +133,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -163,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,9 +216,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,21 +460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -431,7 +485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -453,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -464,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -475,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -486,7 +540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -497,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -505,7 +559,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -516,7 +570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -527,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -535,7 +589,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -543,7 +597,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -551,7 +605,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -559,7 +613,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -567,7 +621,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -575,7 +629,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -583,7 +637,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -591,7 +645,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -599,7 +653,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -607,7 +661,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -615,7 +669,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -623,7 +677,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -631,7 +685,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -639,7 +693,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -647,7 +701,7 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -655,7 +709,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -663,7 +717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -671,7 +725,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -679,7 +733,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -687,7 +741,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -695,7 +749,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -703,7 +757,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -711,7 +765,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -719,7 +773,7 @@
         <v>0.217</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -727,7 +781,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -735,7 +789,7 @@
         <v>0.247</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -743,7 +797,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -751,7 +805,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -759,7 +813,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -767,7 +821,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -775,7 +829,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -783,7 +837,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -791,7 +845,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -799,7 +853,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -807,7 +861,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -822,24 +876,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
